--- a/STM32F4_pinmatrix.xlsx
+++ b/STM32F4_pinmatrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>SPI2_SCK</t>
     <phoneticPr fontId="1"/>
@@ -218,6 +218,66 @@
   </si>
   <si>
     <t>SDIO_D2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_RMII_TXD1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_RMII_TXD0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_RMII_RXD0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_RMII_RXD1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_RMII_TX_EN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_RMII_CRS_DV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_MDIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_MDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETH_RMII_REF_CLK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -260,18 +320,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,7 +347,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -629,235 +683,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U30"/>
+  <dimension ref="A2:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <pane xSplit="2880" topLeftCell="G1" activePane="topRight"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="1" customWidth="1"/>
-    <col min="9" max="13" width="5.83203125" customWidth="1"/>
-    <col min="14" max="19" width="6.33203125" customWidth="1"/>
+    <col min="2" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="11" width="5.83203125" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="1" customWidth="1"/>
+    <col min="13" max="18" width="5.83203125" customWidth="1"/>
+    <col min="19" max="26" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" t="s">
+      <c r="T7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="S9" t="s">
+      <c r="Z10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AA11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AB12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
+      <c r="J15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="K16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" t="s">
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" t="s">
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="P23" t="s">
+      <c r="W24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="X25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="S25" t="s">
+      <c r="Z26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" t="s">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" t="s">
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="P28" t="s">
+      <c r="W29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="X30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" t="s">
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
         <v>44</v>
       </c>
-      <c r="U30" t="s">
+      <c r="AB31" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="V36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="R41" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
